--- a/reparo_atual.xlsx
+++ b/reparo_atual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://magaaviationbr.sharepoint.com/sites/MECANICA/Shared Documents/General/PRODUTIVIDADE/1. PLANEJAMENTO E CONTROLE DE MANUTENÇÃO/1. BackLog Manutenção/Análise de Dados - Python/Dashboard Reparo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85284F9E-8D56-4AC5-A0D5-9F57AC1CA4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC33263-2F01-4B1A-9725-A09A27EC0237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="9660" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="119">
   <si>
     <t>Status</t>
   </si>
@@ -154,178 +154,211 @@
     <t>&lt;a href='../_lib/file/doc/insumos/000393819/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
   <si>
+    <t>PO 011619 Ativa</t>
+  </si>
+  <si>
+    <t>PR-ONE</t>
+  </si>
+  <si>
+    <t>2017-41-201</t>
+  </si>
+  <si>
+    <t>CARD, GRAPHIC, FMS, UNS-1E</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>FMS (CDU) #2 APRESENTANDO FALHA INTERNA DURANTE CONTROLE DE BRILHO - REPARO</t>
+  </si>
+  <si>
+    <t>1.076,00</t>
+  </si>
+  <si>
+    <t>5.829,00</t>
+  </si>
+  <si>
+    <t>TAM AVIACAO EXECUTIVA E TAXI AEREO S/A</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000391870/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>N?o Comprado</t>
+  </si>
+  <si>
+    <t>PP-CRC</t>
+  </si>
+  <si>
+    <t>4525500074-001</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ANGLE</t>
+  </si>
+  <si>
+    <t>REPARO (CORROSAO), ENVIAR PARA CONFECCAO</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>2.076,10</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000390133/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PO 012194 Ativa</t>
+  </si>
+  <si>
+    <t>PT-FLE</t>
+  </si>
+  <si>
+    <t>MC10-15-166</t>
+  </si>
+  <si>
+    <t>SE12080</t>
+  </si>
+  <si>
+    <t>MASK, OXYGEN, CREW</t>
+  </si>
+  <si>
+    <t>SWITCH NORMAL DANIFICADA</t>
+  </si>
+  <si>
+    <t>Overhaul</t>
+  </si>
+  <si>
+    <t>9.412,56</t>
+  </si>
+  <si>
+    <t>AEROSAFETY EQUIPAMENTOS DE SEGURANCA LTDA</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000402222/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>63600-501</t>
+  </si>
+  <si>
+    <t>L3716176</t>
+  </si>
+  <si>
+    <t>LIFEVEST, CREW</t>
+  </si>
+  <si>
+    <t>EMBALAGEM ABERTA</t>
+  </si>
+  <si>
+    <t>1,57</t>
+  </si>
+  <si>
+    <t>18,39</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000405214/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PP-CRV</t>
+  </si>
+  <si>
+    <t>2025/09/0004</t>
+  </si>
+  <si>
+    <t>SE18755</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>4.002,08</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000377890/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>5500-C1W-BF23A</t>
+  </si>
+  <si>
+    <t>OXYGEN, PORTABLE SYSTEM</t>
+  </si>
+  <si>
+    <t>1.772,11</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000416659/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PP-OES</t>
+  </si>
+  <si>
+    <t>2024/12/0044</t>
+  </si>
+  <si>
+    <t>D21343-153</t>
+  </si>
+  <si>
+    <t>L938048</t>
+  </si>
+  <si>
+    <t>LIFE VEST</t>
+  </si>
+  <si>
+    <t>RECERTIFICACAO</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>16,98</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000404634/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L938049</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000404635/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L938054</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000404636/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>PO 012358 Ativa</t>
   </si>
   <si>
-    <t>9544207-4</t>
-  </si>
-  <si>
-    <t>APR17-11538</t>
-  </si>
-  <si>
-    <t>WHEEL ASSY, NOSE GEAR</t>
-  </si>
-  <si>
-    <t>ENVIAR PARA REPARO, CORROSAO NOS FUROS DE FIXACAO DA RODA</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>2.102,05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIVA AER INDUSTRIA, COMERCIO E SERVICOS AERONAUTICOS LTDA </t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000395398/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PO 011619 Ativa</t>
-  </si>
-  <si>
-    <t>PR-ONE</t>
-  </si>
-  <si>
-    <t>2017-41-201</t>
-  </si>
-  <si>
-    <t>CARD, GRAPHIC, FMS, UNS-1E</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>FMS (CDU) #2 APRESENTANDO FALHA INTERNA DURANTE CONTROLE DE BRILHO - REPARO</t>
-  </si>
-  <si>
-    <t>1.076,00</t>
-  </si>
-  <si>
-    <t>5.829,00</t>
-  </si>
-  <si>
-    <t>TAM AVIACAO EXECUTIVA E TAXI AEREO S/A</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000391870/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>N?o Comprado</t>
-  </si>
-  <si>
-    <t>PP-CRC</t>
-  </si>
-  <si>
-    <t>4525500074-001</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ANGLE</t>
-  </si>
-  <si>
-    <t>REPARO (CORROSAO), ENVIAR PARA CONFECCAO</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>2.076,10</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000390133/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PO 012194 Ativa</t>
-  </si>
-  <si>
-    <t>PT-FLE</t>
-  </si>
-  <si>
-    <t>MC10-15-166</t>
-  </si>
-  <si>
-    <t>SE12080</t>
-  </si>
-  <si>
-    <t>MASK, OXYGEN, CREW</t>
-  </si>
-  <si>
-    <t>SWITCH NORMAL DANIFICADA</t>
-  </si>
-  <si>
-    <t>Overhaul</t>
-  </si>
-  <si>
-    <t>9.412,56</t>
-  </si>
-  <si>
-    <t>AEROSAFETY EQUIPAMENTOS DE SEGURANCA LTDA</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000402222/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>63600-501</t>
-  </si>
-  <si>
-    <t>L3716176</t>
-  </si>
-  <si>
-    <t>LIFEVEST, CREW</t>
-  </si>
-  <si>
-    <t>EMBALAGEM ABERTA</t>
-  </si>
-  <si>
-    <t>1,57</t>
-  </si>
-  <si>
-    <t>18,39</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000405214/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PP-OES</t>
-  </si>
-  <si>
-    <t>2024/12/0044</t>
-  </si>
-  <si>
-    <t>D21343-153</t>
-  </si>
-  <si>
-    <t>L938048</t>
-  </si>
-  <si>
-    <t>LIFE VEST</t>
-  </si>
-  <si>
-    <t>RECERTIFICACAO</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>16,98</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000404634/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L938049</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000404635/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L938054</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000404636/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+    <t>PR-OPF</t>
+  </si>
+  <si>
+    <t>2025/05/0055</t>
+  </si>
+  <si>
+    <t>2024T3-.050</t>
+  </si>
+  <si>
+    <t>N-A</t>
+  </si>
+  <si>
+    <t>ALUMINUM</t>
+  </si>
+  <si>
+    <t>TRATAMENTO DE TEMPERA PARA 2024T3</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
+    <t>VIVA AER INDUSTRIA, COMERCIO E SERVICOS AERONAUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000415539/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
   <si>
     <t>Atv</t>
@@ -696,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,22 +902,22 @@
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11845</v>
       </c>
       <c r="F3" s="1">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="I3" s="1">
+        <v>293</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>47</v>
@@ -893,16 +926,14 @@
         <v>34</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>37</v>
@@ -917,65 +948,63 @@
         <v>39</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1">
-        <v>11845</v>
+        <v>12367</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>8004</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1">
-        <v>293</v>
+        <v>56</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>37</v>
@@ -990,17 +1019,15 @@
         <v>39</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1020,10 +1047,10 @@
         <v>64</v>
       </c>
       <c r="E5" s="1">
-        <v>12367</v>
+        <v>12669</v>
       </c>
       <c r="F5" s="1">
-        <v>8004</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>65</v>
@@ -1052,7 +1079,7 @@
         <v>37</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>38</v>
@@ -1061,67 +1088,71 @@
         <v>39</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="Z5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="1">
-        <v>12669</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>38</v>
@@ -1130,52 +1161,52 @@
         <v>39</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="X6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AA6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>34</v>
@@ -1183,18 +1214,16 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>38</v>
@@ -1203,66 +1232,62 @@
         <v>39</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="I8" s="1">
+        <v>68995</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1276,52 +1301,52 @@
         <v>39</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" s="1">
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>34</v>
@@ -1334,7 +1359,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>37</v>
@@ -1349,52 +1374,52 @@
         <v>39</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1">
         <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>34</v>
@@ -1407,7 +1432,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>37</v>
@@ -1422,22 +1447,22 @@
         <v>39</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1446,39 +1471,41 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="1">
-        <v>12571</v>
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F11" s="1">
-        <v>8021</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2968</v>
+        <v>92</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>37</v>
@@ -1493,46 +1520,52 @@
         <v>39</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="1">
-        <v>12571</v>
+        <v>104</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F12" s="1">
-        <v>8022</v>
+        <v>271</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2967</v>
+        <v>106</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>34</v>
@@ -1543,7 +1576,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>37</v>
@@ -1558,17 +1591,153 @@
         <v>39</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12571</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8021</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2968</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12571</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8022</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2967</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1828,11 +1997,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46BA18B-4C33-4B17-8C8B-7C47726D40F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C8AC58-0362-4129-A822-72C918F964CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="09606699-7a64-4628-8f43-ea4461db2505"/>
+    <ds:schemaRef ds:uri="83e06874-34f8-4de1-9c64-a41f9065ec32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FCA9958-6001-4FBC-A4F0-90A20448767F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2E05B43-2A82-43D1-A178-3A55ACF03DBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1840,18 +2024,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA3F0E0-69B5-4D0F-BA10-01866AAE72E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB5793F6-9689-4427-B5AF-330F2CCC6E3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="83e06874-34f8-4de1-9c64-a41f9065ec32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="09606699-7a64-4628-8f43-ea4461db2505"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="83e06874-34f8-4de1-9c64-a41f9065ec32"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/reparo_atual.xlsx
+++ b/reparo_atual.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://magaaviationbr.sharepoint.com/sites/MECANICA/Shared Documents/General/PRODUTIVIDADE/1. PLANEJAMENTO E CONTROLE DE MANUTENÇÃO/1. BackLog Manutenção/Análise de Dados - Python/Dashboard Reparo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE41AE5A-6EC9-427D-A147-FB6BF478E6F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3B7C50-5689-4F61-A8D1-25B39D187B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="9660" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
   <si>
     <t>Status</t>
   </si>
@@ -205,6 +205,48 @@
     <t>&lt;a href='../_lib/file/doc/insumos/000402222/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Atv</t>
+  </si>
+  <si>
+    <t>PR-MUR</t>
+  </si>
+  <si>
+    <t>23080-023</t>
+  </si>
+  <si>
+    <t>DC STARTER GENERATOR</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>4.178,26</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000404583/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PT-XFS</t>
+  </si>
+  <si>
+    <t>400SG138Q-2</t>
+  </si>
+  <si>
+    <t>GENERATOR ASSY</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>OVERHAUL</t>
+  </si>
+  <si>
+    <t>753,70</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000418595/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>PP-CRV</t>
   </si>
   <si>
@@ -223,22 +265,85 @@
     <t>&lt;a href='../_lib/file/doc/insumos/000377890/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
   <si>
-    <t>PO 012365 Ativa</t>
-  </si>
-  <si>
-    <t>5500-C1W-BF23A</t>
-  </si>
-  <si>
-    <t>OXYGEN, PORTABLE SYSTEM</t>
-  </si>
-  <si>
-    <t>1.772,11</t>
-  </si>
-  <si>
-    <t>CRUZEIRO DO SUL AVIACAO LTDA</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000416659/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+    <t>PO 012436 Ativa</t>
+  </si>
+  <si>
+    <t>PR-MFX</t>
+  </si>
+  <si>
+    <t>2025/06/0043</t>
+  </si>
+  <si>
+    <t>D21343-153</t>
+  </si>
+  <si>
+    <t>L971821</t>
+  </si>
+  <si>
+    <t>LIFE VEST</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>RECERTIFICACAO VENCIDA</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>18,94</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401654/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971868</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401655/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L959725</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401656/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971822</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401657/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L963926</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401658/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971820</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401659/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971789</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401660/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L952757</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401661/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964004</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401662/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
   <si>
     <t>PP-OES</t>
@@ -247,13 +352,7 @@
     <t>2024/12/0044</t>
   </si>
   <si>
-    <t>D21343-153</t>
-  </si>
-  <si>
-    <t>L938048</t>
-  </si>
-  <si>
-    <t>LIFE VEST</t>
+    <t>L3594290</t>
   </si>
   <si>
     <t>2025-09-04</t>
@@ -262,43 +361,10 @@
     <t>RECERTIFICACAO</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>16,98</t>
   </si>
   <si>
     <t>&lt;a href='../_lib/file/doc/insumos/000404634/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PO 012358 Ativa</t>
-  </si>
-  <si>
-    <t>PR-OPF</t>
-  </si>
-  <si>
-    <t>2025/05/0055</t>
-  </si>
-  <si>
-    <t>2024T3-.050</t>
-  </si>
-  <si>
-    <t>N-A</t>
-  </si>
-  <si>
-    <t>ALUMINUM</t>
-  </si>
-  <si>
-    <t>TRATAMENTO DE TEMPERA PARA 2024T3</t>
-  </si>
-  <si>
-    <t>0,16</t>
-  </si>
-  <si>
-    <t>VIVA AER INDUSTRIA, COMERCIO E SERVICOS AERONAUTICOS LTDA</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000415539/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -651,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,32 +1023,32 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E5" s="1">
+        <v>12734</v>
+      </c>
       <c r="F5" s="1">
-        <v>73</v>
+        <v>8263</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="I5" s="1">
+        <v>97695</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>32</v>
@@ -990,7 +1056,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1014,61 +1080,63 @@
         <v>48</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12897</v>
       </c>
       <c r="F6" s="1">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="1">
-        <v>68995</v>
+        <v>1409</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="R6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>36</v>
@@ -1077,22 +1145,20 @@
         <v>37</v>
       </c>
       <c r="V6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1104,25 +1170,25 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1">
         <v>73</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>32</v>
@@ -1134,14 +1200,12 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>36</v>
@@ -1150,63 +1214,65 @@
         <v>37</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1">
+        <v>148</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="1">
-        <v>271</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>35</v>
@@ -1221,22 +1287,679 @@
         <v>37</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1">
+        <v>148</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>92</v>
+      <c r="J9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1">
+        <v>148</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="1">
+        <v>148</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1">
+        <v>148</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1">
+        <v>148</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1">
+        <v>148</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1">
+        <v>148</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1">
+        <v>148</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="1">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +2220,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40669B57-4561-4013-9694-F1955851956D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148B32F3-61FB-4956-B153-8BB5C3F04E72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1516,7 +2239,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4F9023-3653-40AB-B93E-98CBDF12C25B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D58988C-56D3-46C4-8D9B-A378F0C8D856}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1524,18 +2247,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBBC1B78-D1DF-4A59-B2CA-CC40CF0A9B1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{692934C8-EE2C-4985-9319-1CC9B3139D2F}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="83e06874-34f8-4de1-9c64-a41f9065ec32"/>
+    <ds:schemaRef ds:uri="09606699-7a64-4628-8f43-ea4461db2505"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="09606699-7a64-4628-8f43-ea4461db2505"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="83e06874-34f8-4de1-9c64-a41f9065ec32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/reparo_atual.xlsx
+++ b/reparo_atual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://magaaviationbr.sharepoint.com/sites/MECANICA/Shared Documents/General/PRODUTIVIDADE/1. PLANEJAMENTO E CONTROLE DE MANUTENÇÃO/1. BackLog Manutenção/Análise de Dados - Python/Dashboard Reparo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3B7C50-5689-4F61-A8D1-25B39D187B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C45CF20-ED9C-46BE-A776-1F39960784B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="9660" windowHeight="5490"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="153">
   <si>
     <t>Status</t>
   </si>
@@ -103,12 +103,96 @@
     <t>Documento</t>
   </si>
   <si>
+    <t>PO 012403 Ativa</t>
+  </si>
+  <si>
+    <t>cPr</t>
+  </si>
+  <si>
+    <t>PT-CTA</t>
+  </si>
+  <si>
+    <t>2025/08/0064</t>
+  </si>
+  <si>
+    <t>MC20-004</t>
+  </si>
+  <si>
+    <t>123704I</t>
+  </si>
+  <si>
+    <t>QUICK DONNING HALF MASK</t>
+  </si>
+  <si>
+    <t>Pe?as</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>RESTORATION OF THE CREW OXYGEN MASK</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Overhaul</t>
+  </si>
+  <si>
+    <t>REPARO</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
+    <t>513,40</t>
+  </si>
+  <si>
+    <t>2.382,61</t>
+  </si>
+  <si>
+    <t>AEROSAFETY EQUIPAMENTOS DE SEGURANCA LTDA</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000418244/ilovepdf_merged (8).pdf' target='_blank'&gt;ilovepdf_merged (8).pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PO 012458 Ativa</t>
+  </si>
+  <si>
+    <t>PS-PVS</t>
+  </si>
+  <si>
+    <t>3017-41-221</t>
+  </si>
+  <si>
+    <t>FLIGHT MANAGEMENT SYSTEM, UNS-1EW</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>MSG DE CDU FAIL</t>
+  </si>
+  <si>
+    <t>5.950,00</t>
+  </si>
+  <si>
+    <t>1.056,38</t>
+  </si>
+  <si>
+    <t>TAM AVIACAO EXECUTIVA E TAXI AEREO S/A</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000420827/ilovepdf_merged (1).pdf' target='_blank'&gt;ilovepdf_merged (1).pdf&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>PO 011619 Ativa</t>
   </si>
   <si>
-    <t>cPr</t>
-  </si>
-  <si>
     <t>PR-ONE</t>
   </si>
   <si>
@@ -118,33 +202,18 @@
     <t>CARD, GRAPHIC, FMS, UNS-1E</t>
   </si>
   <si>
-    <t>Pe?as</t>
-  </si>
-  <si>
     <t>2025-05-20</t>
   </si>
   <si>
     <t>FMS (CDU) #2 APRESENTANDO FALHA INTERNA DURANTE CONTROLE DE BRILHO - REPARO</t>
   </si>
   <si>
-    <t>Repair</t>
-  </si>
-  <si>
-    <t>REPARO</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
     <t>1.076,00</t>
   </si>
   <si>
     <t>5.829,00</t>
   </si>
   <si>
-    <t>TAM AVIACAO EXECUTIVA E TAXI AEREO S/A</t>
-  </si>
-  <si>
     <t>&lt;a href='../_lib/file/doc/insumos/000391870/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
   <si>
@@ -175,177 +244,141 @@
     <t>&lt;a href='../_lib/file/doc/insumos/000390133/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Atv</t>
+  </si>
+  <si>
+    <t>PR-MUR</t>
+  </si>
+  <si>
+    <t>23080-023</t>
+  </si>
+  <si>
+    <t>DC STARTER GENERATOR</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>4.178,26</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000404583/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PO 012439 Ativa</t>
+  </si>
+  <si>
+    <t>PT-XFS</t>
+  </si>
+  <si>
+    <t>400SG138Q-2</t>
+  </si>
+  <si>
+    <t>GENERATOR ASSY</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>OVERHAUL</t>
+  </si>
+  <si>
+    <t>753,70</t>
+  </si>
+  <si>
+    <t>13.292,19</t>
+  </si>
+  <si>
+    <t>VMF AERONAUTICA LTDA</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000418595/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PO 012436 Ativa</t>
+  </si>
+  <si>
+    <t>PR-MFX</t>
+  </si>
+  <si>
+    <t>2025/06/0043</t>
+  </si>
+  <si>
+    <t>D21343-153</t>
+  </si>
+  <si>
+    <t>L971821</t>
+  </si>
+  <si>
+    <t>LIFE VEST</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>RECERTIFICACAO VENCIDA</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>18,94</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401654/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971868</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401655/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L959725</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401656/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971822</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401657/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L963926</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401658/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971820</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401659/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L971789</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401660/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L952757</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401661/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964004</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401662/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>PO 012194 Ativa</t>
   </si>
   <si>
-    <t>PT-FLE</t>
-  </si>
-  <si>
-    <t>MC10-15-166</t>
-  </si>
-  <si>
-    <t>SE12080</t>
-  </si>
-  <si>
-    <t>MASK, OXYGEN, CREW</t>
-  </si>
-  <si>
-    <t>SWITCH NORMAL DANIFICADA</t>
-  </si>
-  <si>
-    <t>Overhaul</t>
-  </si>
-  <si>
-    <t>9.412,56</t>
-  </si>
-  <si>
-    <t>AEROSAFETY EQUIPAMENTOS DE SEGURANCA LTDA</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000402222/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Atv</t>
-  </si>
-  <si>
-    <t>PR-MUR</t>
-  </si>
-  <si>
-    <t>23080-023</t>
-  </si>
-  <si>
-    <t>DC STARTER GENERATOR</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>4.178,26</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000404583/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PT-XFS</t>
-  </si>
-  <si>
-    <t>400SG138Q-2</t>
-  </si>
-  <si>
-    <t>GENERATOR ASSY</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>OVERHAUL</t>
-  </si>
-  <si>
-    <t>753,70</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000418595/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PP-CRV</t>
-  </si>
-  <si>
-    <t>2025/09/0004</t>
-  </si>
-  <si>
-    <t>SE18755</t>
-  </si>
-  <si>
-    <t>2025-09-11</t>
-  </si>
-  <si>
-    <t>4.002,08</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000377890/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PO 012436 Ativa</t>
-  </si>
-  <si>
-    <t>PR-MFX</t>
-  </si>
-  <si>
-    <t>2025/06/0043</t>
-  </si>
-  <si>
-    <t>D21343-153</t>
-  </si>
-  <si>
-    <t>L971821</t>
-  </si>
-  <si>
-    <t>LIFE VEST</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>RECERTIFICACAO VENCIDA</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>18,94</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401654/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L971868</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401655/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L959725</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401656/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L971822</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401657/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L963926</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401658/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L971820</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401659/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L971789</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401660/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L952757</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401661/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>L964004</t>
-  </si>
-  <si>
-    <t>&lt;a href='../_lib/file/doc/insumos/000401662/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>PP-OES</t>
   </si>
   <si>
@@ -365,6 +398,87 @@
   </si>
   <si>
     <t>&lt;a href='../_lib/file/doc/insumos/000404634/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PO 012460 Ativa</t>
+  </si>
+  <si>
+    <t>PP-VEE</t>
+  </si>
+  <si>
+    <t>2025/09/0043</t>
+  </si>
+  <si>
+    <t>L964034</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>46,19</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401429/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L959750</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401430/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964008</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401431/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964036</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401432/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964009</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401433/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964030</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401434/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964039</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401435/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964033</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401436/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964037</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401437/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L964032</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401438/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>L959726</t>
+  </si>
+  <si>
+    <t>&lt;a href='../_lib/file/doc/insumos/000401439/PDF.pdf' target='_blank'&gt;PDF.pdf&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -717,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,1147 +933,1960 @@
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1">
-        <v>11845</v>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>293</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1">
-        <v>12367</v>
+        <v>12400</v>
       </c>
       <c r="F3" s="1">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2255</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="Z3" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1">
-        <v>12669</v>
+        <v>11845</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="I4" s="1">
+        <v>293</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1">
-        <v>12734</v>
+        <v>12367</v>
       </c>
       <c r="F5" s="1">
-        <v>8263</v>
+        <v>8004</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="1">
-        <v>97695</v>
+        <v>67</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
-        <v>12897</v>
+        <v>12734</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>8263</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I6" s="1">
-        <v>1409</v>
+        <v>97695</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12897</v>
       </c>
       <c r="F7" s="1">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1409</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="R7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1">
         <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1">
         <v>148</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1">
         <v>148</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1">
         <v>148</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1">
         <v>148</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1">
         <v>148</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1">
         <v>148</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1">
         <v>148</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1">
         <v>148</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F17" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="1">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="1">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="1">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="1">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="1">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +3147,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148B32F3-61FB-4956-B153-8BB5C3F04E72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72A0438-B648-4608-B3DB-F6C7146B567C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2239,7 +3166,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D58988C-56D3-46C4-8D9B-A378F0C8D856}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5071FCB5-67F7-4AFC-93DF-2704EAA56CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -2247,18 +3174,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{692934C8-EE2C-4985-9319-1CC9B3139D2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0E8F869-2B4A-4440-A42F-A9F4EBD4280E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="83e06874-34f8-4de1-9c64-a41f9065ec32"/>
     <ds:schemaRef ds:uri="09606699-7a64-4628-8f43-ea4461db2505"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>